--- a/pruebas/Caso_de_prueba_1_Iniciar_sesion - copia.xlsx
+++ b/pruebas/Caso_de_prueba_1_Iniciar_sesion - copia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`\Desktop\MicroBlog\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDRES\Documents\GitHub\ingSoft2017\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Procedimiento de Prueba: Identificar usuario</t>
   </si>
@@ -27,9 +27,6 @@
     <t>1- Ingresar a la pantalla de identificación.</t>
   </si>
   <si>
-    <t>2- Ingresar Nombre de Usuario y contraseña</t>
-  </si>
-  <si>
     <t>3- Presionar botón identificarse</t>
   </si>
   <si>
@@ -52,61 +49,65 @@
   </si>
   <si>
     <t>Resultado Obtenido</t>
-  </si>
-  <si>
-    <t>Lograr una identificación correcta
- Del usuario registrado</t>
   </si>
   <si>
     <t>usuario:user1
 contraseña:1234</t>
   </si>
   <si>
-    <t>muestra pantalla principal
-Del sistema</t>
-  </si>
-  <si>
     <t>Comprobar que se requieran los campos obligatorios</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>usuario:
+contraseña:</t>
+  </si>
+  <si>
+    <t>Muestra pantalla principal
+del sistema</t>
+  </si>
+  <si>
+    <t>2- Ingresar Nombre de Usuario y Contraseña</t>
+  </si>
+  <si>
+    <t>Lograr una identificación correcta del usuario registrado</t>
+  </si>
+  <si>
     <t>usuario:user1
-contraseña:en blanco</t>
-  </si>
-  <si>
-    <t>muestra el aviso en pantalla de que
-Falta contraseña</t>
-  </si>
-  <si>
-    <t>1- Ingresar a la pantalla de identificación en dos pestañas o ventanas al mismo tiempo.</t>
-  </si>
-  <si>
-    <t>2- Ingresar Nombre de Usuario y contraseña en cada uno de los formularios</t>
-  </si>
-  <si>
-    <t>3- Presionar botón identificarse en cada uno de los formularios</t>
-  </si>
-  <si>
-    <t>Comprobar que se impida identificar dos veces al 
-Mismo usuario</t>
-  </si>
-  <si>
-    <t>muestra pantalla principal del sistema en la pantalla 1.
-Muestra cartel de error “El usuario ya ha accedido al sistema” en la pantalla 2.</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
+contraseña: (en blanco)</t>
+  </si>
+  <si>
+    <t>Muestra error en pantalla</t>
+  </si>
+  <si>
+    <t>1- Ingresar a la pantalla de identificación en dos equipos al mismo tiempo.</t>
+  </si>
+  <si>
+    <t>2- Ingresar Nombre de Usuario y Contraseña en cada uno de los formularios.</t>
+  </si>
+  <si>
+    <t>3- Presionar el botón identificarse en cada uno de los formularios.</t>
+  </si>
+  <si>
+    <t>Comprobar que se impida identificar dos veces el mismo usuario</t>
+  </si>
+  <si>
+    <t>Muestra la pantalla principal del sistema en el equipo 1.
+Muestra cartel de error “El usuario ya ha accedido al sistema” en el equipo 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,17 +217,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,131 +512,131 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
+    <col min="1" max="1" width="10.625"/>
     <col min="2" max="2" width="51"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="1025" width="10.5703125"/>
+    <col min="7" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -648,108 +649,103 @@
       <c r="F10" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A6:F6"/>
@@ -757,6 +753,11 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
